--- a/MiseAJour_Contenu_Sejour/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/MiseAJour_Contenu_Sejour/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-23T09:58:45+00:00</t>
+    <t>2025-01-23T10:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MiseAJour_Contenu_Sejour/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/MiseAJour_Contenu_Sejour/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-23T10:03:22+00:00</t>
+    <t>2025-01-27T10:21:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
